--- a/filter-to-another-sheet-excel-start.xlsx
+++ b/filter-to-another-sheet-excel-start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA65B9-EB6E-4F5B-9EBE-605487624D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B0BCE-6C73-4523-93AC-3297A1366D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{E52435AF-9877-4B85-B747-397A77E3DEF4}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{E52435AF-9877-4B85-B747-397A77E3DEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="3" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C84572-BD22-4DA1-BD60-FDC317B3DFE4}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1596,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C84B468-9C52-49D2-98A2-26E0FE3EF3CB}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
